--- a/data/dashboards_csc.xlsx
+++ b/data/dashboards_csc.xlsx
@@ -1,40 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aperalesc\Desktop\EDA Dashboards\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB362172-EBCE-43CE-BBB7-E3C7C5FAF91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{099ACCF9-0E27-4D95-A775-8B46AD0B4DCA}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AB$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Hoja1!$A$1:$AB$59</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -164,7 +142,7 @@
     <t>https://bi.alicorp.com.pe/reports/469</t>
   </si>
   <si>
-    <t>'- Analista de Administración_x000D_
+    <t>- Analista de Administración_x000D_
 - Jefatura de Adminstración_x000D_
 - Gerencia de Administración</t>
   </si>
@@ -215,7 +193,7 @@
     <t>https://bi.alicorp.com.pe/reports/33</t>
   </si>
   <si>
-    <t>'- Gerencia CSC_x000D_
+    <t>- Gerencia CSC_x000D_
 - Gerencia Tesorería, créditos y cobranzas</t>
   </si>
   <si>
@@ -231,7 +209,7 @@
     <t>https://bi.alicorp.com.pe/reports/40</t>
   </si>
   <si>
-    <t>'- Clientes Areas usuarias_x000D_
+    <t>- Clientes Areas usuarias_x000D_
 - Jefe de cobranzas_x000D_
 - Gerencia comercial</t>
   </si>
@@ -300,7 +278,7 @@
     <t>https://bi.alicorp.com.pe/reports/558</t>
   </si>
   <si>
-    <t>'- Analista de Cob y Garantías_x000D_
+    <t>- Analista de Cob y Garantías_x000D_
 - Jefatura de Cob y Garantías_x000D_
 - Gerencia de Cob y Garantías</t>
   </si>
@@ -424,7 +402,7 @@
     <t>https://bi.alicorp.com.pe/reports/479</t>
   </si>
   <si>
-    <t>'- Gerentes corporativos_x000D_
+    <t>- Gerentes corporativos_x000D_
 - Miembros de Chapter de Analytics de Contraloría_x000D_
 - Leads de PAD</t>
   </si>
@@ -447,7 +425,7 @@
     <t>https://bi.alicorp.com.pe/reports/498</t>
   </si>
   <si>
-    <t>'- Asistente de Mesa de Servicios_x000D_
+    <t>- Asistente de Mesa de Servicios_x000D_
 - Analista de Analytics_x000D_
 - Jefatura de Atención a Proveedores y Analytics</t>
   </si>
@@ -527,7 +505,7 @@
     <t>https://bi.alicorp.com.pe/reports/36</t>
   </si>
   <si>
-    <t>'-Equipo interno GSC</t>
+    <t>-Equipo interno GSC</t>
   </si>
   <si>
     <t>Gerencia de Servicios al Colaborador</t>
@@ -602,7 +580,7 @@
     <t>https://bi.alicorp.com.pe/reports/34</t>
   </si>
   <si>
-    <t>'- Compras_x000D_
+    <t>- Compras_x000D_
 - CSC_x000D_
 - Equipo interno PTP</t>
   </si>
@@ -637,7 +615,7 @@
     <t>https://bi.alicorp.com.pe/reports/171</t>
   </si>
   <si>
-    <t>'- Compras_x000D_
+    <t>- Compras_x000D_
 - Gerentes CSC  de PTP y TES_x000D_
 - Equipo interno de Exc. Operativa</t>
   </si>
@@ -651,7 +629,7 @@
     <t>https://bi.alicorp.com.pe/reports/176</t>
   </si>
   <si>
-    <t>'- Asistentes de Tesorería_x000D_
+    <t>- Asistentes de Tesorería_x000D_
 - Analistas de Tesorería_x000D_
 - Coordinadores de Tesorería_x000D_
 -  Jefatura de Tesorería</t>
@@ -735,7 +713,7 @@
     <t>https://bi.alicorp.com.pe/reports/547</t>
   </si>
   <si>
-    <t>'- Analista de PTP y Tesorería_x000D_
+    <t>- Analista de PTP y Tesorería_x000D_
 - Jefatura de PTP y Tesorería_x000D_
 - Gerencia de PTP y Tesorería</t>
   </si>
@@ -752,7 +730,7 @@
     <t>https://bi.alicorp.com.pe/reports/669</t>
   </si>
   <si>
-    <t>'- Usuarios Alicorp_x000D_
+    <t>- Usuarios Alicorp_x000D_
 - Gerencias Alicorp_x000D_
 - Equipo interno del CSC</t>
   </si>
@@ -772,7 +750,7 @@
     <t>https://bi.alicorp.com.pe/reports/27</t>
   </si>
   <si>
-    <t>'-Equipo interno RTR</t>
+    <t>-Equipo interno RTR</t>
   </si>
   <si>
     <t>Gerencia de Registro al Reporte</t>
@@ -796,7 +774,7 @@
     <t>Dashboard creado para monitorear los SLA's</t>
   </si>
   <si>
-    <t>'- Indicador 1, 2, 3, 5. Luis Diaz</t>
+    <t>- Indicador 1, 2, 3, 5. Luis Diaz</t>
   </si>
   <si>
     <t>https://bi.alicorp.com.pe/reports/78</t>
@@ -824,7 +802,7 @@
     <t>https://bi.alicorp.com.pe/reports/653</t>
   </si>
   <si>
-    <t>'- Analista de Activos Fijos_x000D_
+    <t>- Analista de Activos Fijos_x000D_
 - Jefatura de Cumplimiento de Costos y Activos Fijos_x000D_
 - Gerencia de RTR</t>
   </si>
@@ -868,7 +846,7 @@
     <t>https://bi.alicorp.com.pe/reports/75</t>
   </si>
   <si>
-    <t>'- Gerencia CSC_x000D_
+    <t>- Gerencia CSC_x000D_
 - Gerencia Operación Tributaria</t>
   </si>
   <si>
@@ -900,14 +878,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -919,12 +906,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -936,42 +944,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -998,116 +1031,82 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1119,5079 +1118,5159 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595F6ACF-FB95-432C-865E-35EE42793E92}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="10" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="5">
         <v>338</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>75</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>0.22</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>26</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="M2" s="5">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="5">
         <v>437</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="5">
         <v>41</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="5">
         <v>85</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="5">
         <v>37</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="5">
         <v>14</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="5">
         <v>32</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="5">
         <v>31</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="111.75">
+      <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>15</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>7</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>0.47</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="5">
         <v>469</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="5">
         <v>11</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="5">
         <v>4</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="5">
         <v>12</v>
       </c>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2">
+      <c r="Y3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="5">
         <v>3</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="5">
         <v>3</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="125.25">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>21</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>11</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>0.52</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="5">
         <v>504</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="5">
         <v>45</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="5">
         <v>4</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="5">
         <v>4</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="5">
         <v>45</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="5">
         <v>39</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="5">
         <v>9</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1"/>
+      <c r="F5" s="5">
         <v>15</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>10</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>0.67</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>37</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="5">
         <v>556</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="5">
         <v>29</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="5">
         <v>8</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="5">
         <v>54</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="5">
         <v>33</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="5">
         <v>89</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="5">
         <v>69</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5">
         <v>7</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>4</v>
       </c>
-      <c r="H6" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="6">
+        <v>0.57</v>
+      </c>
+      <c r="I6" s="5">
         <v>6</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2" t="s">
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="5">
         <v>646</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="5">
         <v>7</v>
       </c>
-      <c r="W6" s="2">
-        <v>1</v>
-      </c>
-      <c r="X6" s="2">
+      <c r="W6" s="5">
+        <v>1</v>
+      </c>
+      <c r="X6" s="5">
         <v>2</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="5">
         <v>3</v>
       </c>
-      <c r="Z6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="2">
+      <c r="Z6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="5">
         <v>16</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="85.5">
+      <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>89</v>
       </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
         <v>0.01</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>3</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4" t="s">
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="5">
         <v>33</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="5">
         <v>4</v>
       </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="125.25">
+      <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>88</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="8">
         <v>40</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
+      <c r="V8" s="8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>136</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>36</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>0.26</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>17</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="5">
         <v>422</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="5">
         <v>53</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="5">
         <v>14</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="5">
         <v>22</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="5">
         <v>22</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z9" s="5">
         <v>15</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9" s="5">
         <v>5</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB9" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="2" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="85.5">
+      <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>13</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>0.31</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>10</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="s">
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="5">
         <v>478</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="5">
         <v>13</v>
       </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2">
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="5">
         <v>2</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="5">
         <v>2</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>12</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>3</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>0.25</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
         <v>11</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="5">
         <v>543</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="5">
         <v>7</v>
       </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="2">
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="5">
         <v>12</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="2" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="151.5">
+      <c r="A12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>15</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>11</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <v>0.73</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>23</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4" t="s">
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="5">
         <v>558</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="5">
         <v>40</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="5">
         <v>27</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="5">
         <v>19</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="5">
         <v>3</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12" s="5">
         <v>8</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12" s="5">
         <v>8</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AB12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="2" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="45.75">
+      <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <v>13</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <v>0.15</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="5">
         <v>6</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4" t="s">
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="5">
         <v>583</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13" s="5">
         <v>10</v>
       </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2">
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="5">
         <v>2</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA13" s="5">
         <v>2</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AB13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>16</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>0.63</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="5">
         <v>23</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="s">
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="5">
         <v>687</v>
       </c>
-      <c r="W14" s="2">
+      <c r="V14" s="2"/>
+      <c r="W14" s="5">
         <v>51</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="5">
         <v>26</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="5">
         <v>18</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="Z14" s="5">
         <v>20</v>
       </c>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="2">
+      <c r="AA14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5">
         <v>80</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>7</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>0.09</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="5">
         <v>6</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2" t="s">
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="5">
         <v>755</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="5">
         <v>10</v>
       </c>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="2">
+      <c r="AA15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="2" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="111.75">
+      <c r="A16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
         <v>88</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>0.02</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>2</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4" t="s">
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="5">
         <v>35</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="5">
         <v>5</v>
       </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2">
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="5">
         <v>88</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>4</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
         <v>0.05</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="5">
         <v>3</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2" t="s">
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="5">
         <v>42</v>
       </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2">
+      <c r="V17" s="5">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5">
         <v>2</v>
       </c>
-      <c r="X17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2">
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="5">
         <v>9</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA17" s="5">
         <v>2</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AB17" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="5">
         <v>88</v>
       </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
         <v>0.01</v>
       </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2" t="s">
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="5">
         <v>43</v>
       </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
-        <v>1</v>
-      </c>
-      <c r="X18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="2">
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="2" customFormat="1" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="111.75">
+      <c r="A19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="5">
         <v>88</v>
       </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
         <v>0.01</v>
       </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4" t="s">
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="S19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="5">
         <v>44</v>
       </c>
-      <c r="V19" s="2">
-        <v>1</v>
-      </c>
-      <c r="W19" s="2">
-        <v>0</v>
-      </c>
-      <c r="X19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="2">
+      <c r="V19" s="5">
+        <v>1</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="5">
         <v>38</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="6">
         <v>0.11</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="5">
         <v>6</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="s">
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="5">
         <v>164</v>
       </c>
-      <c r="V20" s="2">
-        <v>1</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2">
+      <c r="V20" s="5">
+        <v>1</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="5">
         <v>6</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AB20" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="2" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="125.25">
+      <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="5">
         <v>19</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="6">
         <v>0.16</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="5">
         <v>6</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4" t="s">
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0</v>
+      </c>
+      <c r="R21" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="5">
         <v>479</v>
       </c>
-      <c r="V21" s="2">
-        <v>1</v>
-      </c>
-      <c r="W21" s="2">
+      <c r="V21" s="5">
+        <v>1</v>
+      </c>
+      <c r="W21" s="5">
         <v>5</v>
       </c>
-      <c r="X21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="2">
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5">
         <v>4</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AB21" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="5">
         <v>44</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <v>5</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="6">
         <v>0.11</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="5">
         <v>22</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="s">
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="5">
         <v>487</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22" s="5">
         <v>6</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W22" s="5">
         <v>2</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X22" s="5">
         <v>2</v>
       </c>
-      <c r="Y22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="2">
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="5">
         <v>9</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AB22" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="2" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="151.5">
+      <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="5">
         <v>12</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <v>6</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="6">
         <v>0.5</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="5">
         <v>14</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4" t="s">
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="5">
         <v>498</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V23" s="5">
         <v>16</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W23" s="5">
         <v>17</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="5">
         <v>9</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="Y23" s="5">
         <v>16</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="Z23" s="5">
         <v>24</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AA23" s="5">
         <v>14</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AB23" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="5">
         <v>20</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="5">
         <v>11</v>
       </c>
-      <c r="H24" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H24" s="6">
+        <v>0.55</v>
+      </c>
+      <c r="I24" s="5">
         <v>10</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2" t="s">
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="T24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U24" s="5">
         <v>513</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V24" s="5">
         <v>7</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W24" s="5">
         <v>19</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24" s="5">
         <v>8</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="Y24" s="5">
         <v>5</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="Z24" s="5">
         <v>4</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AA24" s="5">
         <v>35</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AB24" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="2" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="5">
         <v>12</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="5">
         <v>10</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="6">
         <v>0.83</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="5">
         <v>9</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
-      <c r="R25" s="4" t="s">
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="T25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="5">
         <v>546</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="5">
         <v>28</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W25" s="5">
         <v>5</v>
       </c>
-      <c r="X25" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="2">
+      <c r="X25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="5">
         <v>9</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="5">
         <v>6</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="6">
         <v>0.67</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="5">
         <v>12</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0</v>
-      </c>
-      <c r="S26" s="2" t="s">
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="T26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="5">
         <v>560</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V26" s="5">
         <v>11</v>
       </c>
-      <c r="W26" s="2">
+      <c r="W26" s="5">
         <v>6</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X26" s="5">
         <v>21</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y26" s="5">
         <v>2</v>
       </c>
-      <c r="Z26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="2">
+      <c r="Z26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="5">
         <v>7</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AB26" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="8">
         <v>6</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
         <v>4</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>1</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T27" t="s">
+      <c r="T27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="8">
         <v>582</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
+      <c r="V27" s="8">
+        <v>0</v>
+      </c>
+      <c r="W27" s="8">
+        <v>0</v>
+      </c>
+      <c r="X27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="5">
         <v>8</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="5">
         <v>6</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="6">
         <v>0.75</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="5">
         <v>5</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="s">
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U28" s="2">
+      <c r="U28" s="5">
         <v>606</v>
       </c>
-      <c r="V28" s="2">
+      <c r="V28" s="5">
         <v>5</v>
       </c>
-      <c r="W28" s="2">
+      <c r="W28" s="5">
         <v>4</v>
       </c>
-      <c r="X28" s="2">
+      <c r="X28" s="5">
         <v>5</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Y28" s="5">
         <v>6</v>
       </c>
-      <c r="Z28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2">
+      <c r="Z28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="5">
         <v>3</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AB28" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="5">
         <v>13</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="5">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="6">
         <v>0.31</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="5">
         <v>6</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>1</v>
-      </c>
-      <c r="S29" s="2" t="s">
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U29" s="2">
+      <c r="U29" s="5">
         <v>679</v>
       </c>
-      <c r="V29" s="2">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2">
+      <c r="V29" s="5">
+        <v>0</v>
+      </c>
+      <c r="W29" s="5">
         <v>9</v>
       </c>
-      <c r="X29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="2">
+      <c r="X29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="5">
         <v>2</v>
       </c>
-      <c r="AB29" s="2">
+      <c r="AB29" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="5">
         <v>189</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="5">
         <v>19</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="6">
         <v>0.1</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="5">
         <v>12</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>1</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2" t="s">
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="S30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="T30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U30" s="2">
+      <c r="U30" s="5">
         <v>787</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="5">
         <v>6</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AB30" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="5">
         <v>88</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="5">
         <v>4</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="6">
         <v>0.05</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="5">
         <v>6</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
-        <v>1</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2" t="s">
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S31" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U31" s="5">
         <v>36</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="5">
         <v>4</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W31" s="5">
         <v>12</v>
       </c>
-      <c r="X31" s="2">
+      <c r="X31" s="5">
         <v>5</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="Y31" s="5">
         <v>3</v>
       </c>
-      <c r="Z31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="2">
+      <c r="Z31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="2" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="5">
         <v>41</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="5">
         <v>3</v>
       </c>
-      <c r="H32" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I32" s="2">
+      <c r="H32" s="6">
+        <v>0.07</v>
+      </c>
+      <c r="I32" s="5">
         <v>36</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2">
-        <v>1</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="4" t="s">
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="S32" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U32" s="2">
+      <c r="U32" s="5">
         <v>490</v>
       </c>
-      <c r="V32" s="2">
+      <c r="V32" s="5">
         <v>10</v>
       </c>
-      <c r="W32" s="2">
+      <c r="W32" s="5">
         <v>2</v>
       </c>
-      <c r="X32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="2">
+      <c r="X32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="2" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="5">
         <v>39</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="5">
         <v>14</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="6">
         <v>0.36</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="5">
         <v>27</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M33" s="2">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2">
-        <v>1</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-      <c r="R33" s="4" t="s">
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0</v>
+      </c>
+      <c r="R33" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="S33" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="T33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U33" s="2">
+      <c r="U33" s="5">
         <v>567</v>
       </c>
-      <c r="V33" s="2">
+      <c r="V33" s="5">
         <v>69</v>
       </c>
-      <c r="W33" s="2">
+      <c r="W33" s="5">
         <v>37</v>
       </c>
-      <c r="X33" s="2">
+      <c r="X33" s="5">
         <v>28</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="Y33" s="5">
         <v>28</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="Z33" s="5">
         <v>14</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AA33" s="5">
         <v>9</v>
       </c>
-      <c r="AB33" s="2">
+      <c r="AB33" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="5">
         <v>49</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="5">
         <v>23</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="6">
         <v>0.47</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="5">
         <v>27</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2">
-        <v>1</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0</v>
-      </c>
-      <c r="R34" s="2" t="s">
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0</v>
+      </c>
+      <c r="R34" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="S34" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="T34" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U34" s="5">
         <v>675</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V34" s="5">
         <v>3</v>
       </c>
-      <c r="W34" s="2">
+      <c r="W34" s="5">
         <v>38</v>
       </c>
-      <c r="X34" s="2">
+      <c r="X34" s="5">
         <v>38</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Y34" s="5">
         <v>31</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="Z34" s="5">
         <v>32</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AA34" s="5">
         <v>36</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AB34" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="5">
         <v>24</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="5">
         <v>11</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="6">
         <v>0.46</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="5">
         <v>21</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>1</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2" t="s">
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="S35" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="T35" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="U35" s="2">
+      <c r="U35" s="5">
         <v>678</v>
       </c>
-      <c r="W35" s="2">
+      <c r="V35" s="2"/>
+      <c r="W35" s="5">
         <v>19</v>
       </c>
-      <c r="X35" s="2">
+      <c r="X35" s="5">
         <v>50</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="Y35" s="5">
         <v>27</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="Z35" s="5">
         <v>23</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AA35" s="5">
         <v>7</v>
       </c>
-      <c r="AB35" s="2">
+      <c r="AB35" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="5">
         <v>5</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="5">
         <v>5</v>
       </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5">
         <v>3</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M36" s="2">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0</v>
-      </c>
-      <c r="O36" s="2">
-        <v>1</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2" t="s">
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <v>1</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1"/>
+      <c r="S36" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="T36" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="U36" s="2">
+      <c r="U36" s="5">
         <v>764</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="5">
         <v>5</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AB36" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="2" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="5">
         <v>89</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="5">
         <v>11</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="6">
         <v>0.12</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="5">
         <v>5</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
-        <v>1</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="4" t="s">
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>1</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0</v>
+      </c>
+      <c r="R37" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="S37" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="T37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U37" s="2">
+      <c r="U37" s="5">
         <v>34</v>
       </c>
-      <c r="V37" s="2">
+      <c r="V37" s="5">
         <v>16</v>
       </c>
-      <c r="W37" s="2">
+      <c r="W37" s="5">
         <v>4</v>
       </c>
-      <c r="X37" s="2">
+      <c r="X37" s="5">
         <v>11</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="Y37" s="5">
         <v>12</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="Z37" s="5">
         <v>16</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="AA37" s="5">
         <v>7</v>
       </c>
-      <c r="AB37" s="2">
+      <c r="AB37" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="2" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="5">
         <v>88</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="5">
         <v>5</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="6">
         <v>0.06</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="5">
         <v>4</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2">
-        <v>1</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="4" t="s">
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>1</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="S38" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="T38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U38" s="2">
+      <c r="U38" s="5">
         <v>4</v>
       </c>
-      <c r="V38" s="2">
-        <v>0</v>
-      </c>
-      <c r="W38" s="2">
-        <v>0</v>
-      </c>
-      <c r="X38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="2">
+      <c r="V38" s="5">
+        <v>0</v>
+      </c>
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="2" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="5">
         <v>88</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="5">
         <v>8</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="6">
         <v>0.09</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="5">
         <v>4</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
-        <v>1</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0</v>
-      </c>
-      <c r="R39" s="4" t="s">
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+      <c r="R39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="S39" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="T39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U39" s="2">
+      <c r="U39" s="5">
         <v>39</v>
       </c>
-      <c r="V39" s="2">
+      <c r="V39" s="5">
         <v>8</v>
       </c>
-      <c r="W39" s="2">
-        <v>0</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="2">
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="2" customFormat="1" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="5">
         <v>82</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="5">
         <v>14</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="6">
         <v>0.17</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="5">
         <v>13</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4" t="s">
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>1</v>
+      </c>
+      <c r="R40" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="S40" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="T40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U40" s="2">
+      <c r="U40" s="5">
         <v>171</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V40" s="5">
         <v>36</v>
       </c>
-      <c r="W40" s="2">
+      <c r="W40" s="5">
         <v>28</v>
       </c>
-      <c r="X40" s="2">
+      <c r="X40" s="5">
         <v>11</v>
       </c>
-      <c r="Y40" s="2">
+      <c r="Y40" s="5">
         <v>3</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="Z40" s="5">
         <v>8</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AA40" s="5">
         <v>9</v>
       </c>
-      <c r="AB40" s="2">
+      <c r="AB40" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="2" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="5">
         <v>7</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="5">
         <v>3</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="6">
         <v>0.43</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="5">
         <v>3</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M41" s="2">
-        <v>1</v>
-      </c>
-      <c r="N41" s="2">
-        <v>1</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="4" t="s">
+      <c r="M41" s="5">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="S41" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="T41" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U41" s="5">
         <v>176</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41" s="5">
         <v>2</v>
       </c>
-      <c r="W41" s="2">
-        <v>1</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="2">
+      <c r="W41" s="5">
+        <v>1</v>
+      </c>
+      <c r="X41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="2" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="5">
         <v>7</v>
       </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I42" s="2">
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="I42" s="5">
         <v>2</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="2">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2">
-        <v>1</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="4" t="s">
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>1</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="S42" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="T42" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="U42" s="2">
+      <c r="U42" s="5">
         <v>236</v>
       </c>
-      <c r="V42" s="2">
-        <v>0</v>
-      </c>
-      <c r="W42" s="2">
-        <v>0</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="2">
+      <c r="V42" s="5">
+        <v>0</v>
+      </c>
+      <c r="W42" s="5">
+        <v>0</v>
+      </c>
+      <c r="X42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="5">
         <v>3</v>
       </c>
-      <c r="AB42" s="2">
+      <c r="AB42" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="2" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="5">
         <v>40</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="5">
         <v>16</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="6">
         <v>0.4</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="5">
         <v>11</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>1</v>
-      </c>
-      <c r="R43" s="4" t="s">
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>1</v>
+      </c>
+      <c r="R43" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="S43" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="T43" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="U43" s="2">
+      <c r="U43" s="5">
         <v>406</v>
       </c>
-      <c r="V43" s="2">
+      <c r="V43" s="5">
         <v>23</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W43" s="5">
         <v>2</v>
       </c>
-      <c r="X43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="2">
+      <c r="X43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="5">
         <v>8</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AA43" s="5">
         <v>14</v>
       </c>
-      <c r="AB43" s="2">
+      <c r="AB43" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F44" s="2">
+      <c r="E44" s="1"/>
+      <c r="F44" s="5">
         <v>28</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="5">
         <v>12</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="6">
         <v>0.43</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="5">
         <v>15</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>1</v>
-      </c>
-      <c r="R44" s="2" t="s">
+      <c r="M44" s="5">
+        <v>1</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>1</v>
+      </c>
+      <c r="R44" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="S44" s="2" t="s">
+      <c r="S44" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T44" s="2" t="s">
+      <c r="T44" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="U44" s="2">
+      <c r="U44" s="5">
         <v>454</v>
       </c>
-      <c r="V44" s="2">
+      <c r="V44" s="5">
         <v>25</v>
       </c>
-      <c r="W44" s="2">
+      <c r="W44" s="5">
         <v>4</v>
       </c>
-      <c r="X44" s="2">
+      <c r="X44" s="5">
         <v>6</v>
       </c>
-      <c r="Y44" s="2">
+      <c r="Y44" s="5">
         <v>7</v>
       </c>
-      <c r="Z44" s="2">
+      <c r="Z44" s="5">
         <v>21</v>
       </c>
-      <c r="AA44" s="2">
+      <c r="AA44" s="5">
         <v>25</v>
       </c>
-      <c r="AB44" s="2">
+      <c r="AB44" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="2" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="5">
         <v>113</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="5">
         <v>22</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="6">
         <v>0.19</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="5">
         <v>29</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2">
-        <v>1</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0</v>
-      </c>
-      <c r="R45" s="4" t="s">
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>1</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>0</v>
+      </c>
+      <c r="R45" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="S45" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="T45" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="U45" s="2">
+      <c r="U45" s="5">
         <v>458</v>
       </c>
-      <c r="V45" s="2">
+      <c r="V45" s="5">
         <v>21</v>
       </c>
-      <c r="W45" s="2">
+      <c r="W45" s="5">
         <v>40</v>
       </c>
-      <c r="X45" s="2">
+      <c r="X45" s="5">
         <v>40</v>
       </c>
-      <c r="Y45" s="2">
+      <c r="Y45" s="5">
         <v>29</v>
       </c>
-      <c r="Z45" s="2">
+      <c r="Z45" s="5">
         <v>24</v>
       </c>
-      <c r="AA45" s="2">
+      <c r="AA45" s="5">
         <v>20</v>
       </c>
-      <c r="AB45" s="2">
+      <c r="AB45" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="5">
         <v>141</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="5">
         <v>51</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="6">
         <v>0.36</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="5">
         <v>143</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
-      <c r="N46" s="2">
-        <v>1</v>
-      </c>
-      <c r="O46" s="2">
-        <v>0</v>
-      </c>
-      <c r="P46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0</v>
-      </c>
-      <c r="S46" s="2" t="s">
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>1</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="T46" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="U46" s="2">
+      <c r="U46" s="5">
         <v>508</v>
       </c>
-      <c r="V46" s="2">
+      <c r="V46" s="5">
         <v>51</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W46" s="5">
         <v>71</v>
       </c>
-      <c r="X46" s="2">
+      <c r="X46" s="5">
         <v>174</v>
       </c>
-      <c r="Y46" s="2">
+      <c r="Y46" s="5">
         <v>161</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="Z46" s="5">
         <v>115</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AA46" s="5">
         <v>243</v>
       </c>
-      <c r="AB46" s="2">
+      <c r="AB46" s="5">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="5">
         <v>39</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="5">
         <v>20</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="6">
         <v>0.51</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="5">
         <v>43</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47" s="2">
-        <v>1</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0</v>
-      </c>
-      <c r="S47" s="2" t="s">
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5">
+        <v>1</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="T47" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="U47" s="2">
+      <c r="U47" s="5">
         <v>530</v>
       </c>
-      <c r="V47" s="2">
+      <c r="V47" s="5">
         <v>87</v>
       </c>
-      <c r="W47" s="2">
+      <c r="W47" s="5">
         <v>24</v>
       </c>
-      <c r="X47" s="2">
+      <c r="X47" s="5">
         <v>35</v>
       </c>
-      <c r="Y47" s="2">
+      <c r="Y47" s="5">
         <v>23</v>
       </c>
-      <c r="Z47" s="2">
+      <c r="Z47" s="5">
         <v>18</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AA47" s="5">
         <v>40</v>
       </c>
-      <c r="AB47" s="2">
+      <c r="AB47" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="2" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="5">
         <v>18</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="5">
         <v>11</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="6">
         <v>0.61</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="5">
         <v>17</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2">
-        <v>1</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>1</v>
-      </c>
-      <c r="R48" s="4" t="s">
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>1</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>1</v>
+      </c>
+      <c r="R48" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="S48" s="2" t="s">
+      <c r="S48" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="T48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U48" s="2">
+      <c r="U48" s="5">
         <v>547</v>
       </c>
-      <c r="V48" s="2">
+      <c r="V48" s="5">
         <v>35</v>
       </c>
-      <c r="W48" s="2">
+      <c r="W48" s="5">
         <v>12</v>
       </c>
-      <c r="X48" s="2">
+      <c r="X48" s="5">
         <v>2</v>
       </c>
-      <c r="Y48" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="2">
+      <c r="Y48" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="5">
         <v>17</v>
       </c>
-      <c r="AA48" s="2">
+      <c r="AA48" s="5">
         <v>3</v>
       </c>
-      <c r="AB48" s="2">
+      <c r="AB48" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="2" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="5">
         <v>388</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="5">
         <v>60</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="6">
         <v>0.15</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="5">
         <v>30</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2">
-        <v>1</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="4" t="s">
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="5">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>0</v>
+      </c>
+      <c r="R49" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="S49" s="2" t="s">
+      <c r="S49" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="T49" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="U49" s="2">
+      <c r="U49" s="5">
         <v>669</v>
       </c>
-      <c r="V49" s="2">
+      <c r="V49" s="5">
         <v>6</v>
       </c>
-      <c r="W49" s="2">
+      <c r="W49" s="5">
         <v>36</v>
       </c>
-      <c r="X49" s="2">
+      <c r="X49" s="5">
         <v>36</v>
       </c>
-      <c r="Y49" s="2">
+      <c r="Y49" s="5">
         <v>17</v>
       </c>
-      <c r="Z49" s="2">
+      <c r="Z49" s="5">
         <v>7</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="AA49" s="5">
         <v>20</v>
       </c>
-      <c r="AB49" s="2">
+      <c r="AB49" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="5">
         <v>88</v>
       </c>
-      <c r="G50" s="2">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="G50" s="5">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6">
         <v>0.01</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="5">
         <v>2</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2">
-        <v>1</v>
-      </c>
-      <c r="O50" s="2">
-        <v>0</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0</v>
-      </c>
-      <c r="R50" s="2" t="s">
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>0</v>
+      </c>
+      <c r="R50" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="S50" s="2" t="s">
+      <c r="S50" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="T50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U50" s="2">
+      <c r="U50" s="5">
         <v>27</v>
       </c>
-      <c r="V50" s="2">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2">
-        <v>0</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB50" s="2">
+      <c r="V50" s="5">
+        <v>0</v>
+      </c>
+      <c r="W50" s="5">
+        <v>0</v>
+      </c>
+      <c r="X50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="5">
         <v>96</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="5">
         <v>3</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="6">
         <v>0.03</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="5">
         <v>2</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2">
-        <v>1</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2" t="s">
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="5">
+        <v>1</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>0</v>
+      </c>
+      <c r="R51" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="S51" s="2" t="s">
+      <c r="S51" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="T51" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U51" s="2">
+      <c r="U51" s="5">
         <v>32</v>
       </c>
-      <c r="V51" s="2">
-        <v>1</v>
-      </c>
-      <c r="W51" s="2">
-        <v>1</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="2">
+      <c r="V51" s="5">
+        <v>1</v>
+      </c>
+      <c r="W51" s="5">
+        <v>1</v>
+      </c>
+      <c r="X51" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="5">
         <v>2</v>
       </c>
-      <c r="Z51" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="2">
+      <c r="Z51" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="5">
         <v>88</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="5">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="6">
         <v>0.03</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="5">
         <v>2</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M52" s="2">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2">
-        <v>1</v>
-      </c>
-      <c r="O52" s="2">
-        <v>0</v>
-      </c>
-      <c r="P52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2" t="s">
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5">
+        <v>1</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>0</v>
+      </c>
+      <c r="R52" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="S52" s="2" t="s">
+      <c r="S52" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="T52" s="2" t="s">
+      <c r="T52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U52" s="2">
+      <c r="U52" s="5">
         <v>78</v>
       </c>
-      <c r="V52" s="2">
+      <c r="V52" s="5">
         <v>5</v>
       </c>
-      <c r="W52" s="2">
-        <v>1</v>
-      </c>
-      <c r="X52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB52" s="2">
+      <c r="W52" s="5">
+        <v>1</v>
+      </c>
+      <c r="X52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="2" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="5">
         <v>52</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="5">
         <v>16</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="6">
         <v>0.31</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="5">
         <v>18</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M53" s="2">
-        <v>0</v>
-      </c>
-      <c r="N53" s="2">
-        <v>1</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0</v>
-      </c>
-      <c r="P53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>0</v>
-      </c>
-      <c r="R53" s="4" t="s">
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>0</v>
+      </c>
+      <c r="R53" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="S53" s="2" t="s">
+      <c r="S53" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="T53" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U53" s="2">
+      <c r="U53" s="5">
         <v>587</v>
       </c>
-      <c r="V53" s="2">
+      <c r="V53" s="5">
         <v>64</v>
       </c>
-      <c r="W53" s="2">
+      <c r="W53" s="5">
         <v>2</v>
       </c>
-      <c r="X53" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="2">
+      <c r="X53" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="5">
         <v>13</v>
       </c>
-      <c r="Z53" s="2">
+      <c r="Z53" s="5">
         <v>61</v>
       </c>
-      <c r="AA53" s="2">
+      <c r="AA53" s="5">
         <v>6</v>
       </c>
-      <c r="AB53" s="2">
+      <c r="AB53" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="2" customFormat="1" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="5">
         <v>10</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="5">
         <v>6</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="6">
         <v>0.6</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="5">
         <v>8</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2">
-        <v>1</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0</v>
-      </c>
-      <c r="P54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="4" t="s">
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>1</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>0</v>
+      </c>
+      <c r="R54" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="S54" s="2" t="s">
+      <c r="S54" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="T54" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U54" s="2">
+      <c r="U54" s="5">
         <v>653</v>
       </c>
-      <c r="V54" s="2">
+      <c r="V54" s="5">
         <v>27</v>
       </c>
-      <c r="W54" s="2">
+      <c r="W54" s="5">
         <v>2</v>
       </c>
-      <c r="X54" s="2">
+      <c r="X54" s="5">
         <v>2</v>
       </c>
-      <c r="Y54" s="2">
+      <c r="Y54" s="5">
         <v>4</v>
       </c>
-      <c r="Z54" s="2">
+      <c r="Z54" s="5">
         <v>3</v>
       </c>
-      <c r="AA54" s="2">
+      <c r="AA54" s="5">
         <v>10</v>
       </c>
-      <c r="AB54" s="2">
+      <c r="AB54" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="5">
         <v>18</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="5">
         <v>2</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="6">
         <v>0.11</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="5">
         <v>2</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M55" s="2">
-        <v>1</v>
-      </c>
-      <c r="N55" s="2">
-        <v>1</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2" t="s">
+      <c r="M55" s="5">
+        <v>1</v>
+      </c>
+      <c r="N55" s="5">
+        <v>1</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>0</v>
+      </c>
+      <c r="R55" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S55" s="2" t="s">
+      <c r="S55" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="T55" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="U55" s="2">
+      <c r="U55" s="5">
         <v>723</v>
       </c>
-      <c r="Y55" s="2">
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="5">
         <v>2</v>
       </c>
-      <c r="Z55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="2">
+      <c r="Z55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="5">
         <v>2</v>
       </c>
-      <c r="AB55" s="2">
+      <c r="AB55" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="5">
         <v>10</v>
       </c>
-      <c r="G56" s="2">
-        <v>1</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="G56" s="5">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6">
         <v>0.1</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="5">
         <v>2</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M56" s="2">
-        <v>1</v>
-      </c>
-      <c r="N56" s="2">
-        <v>1</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0</v>
-      </c>
-      <c r="R56" s="2" t="s">
+      <c r="M56" s="5">
+        <v>1</v>
+      </c>
+      <c r="N56" s="5">
+        <v>1</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>0</v>
+      </c>
+      <c r="R56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="S56" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="T56" s="2" t="s">
+      <c r="T56" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="U56" s="2">
+      <c r="U56" s="5">
         <v>730</v>
       </c>
-      <c r="Y56" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z56" s="2">
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="5">
         <v>2</v>
       </c>
-      <c r="AA56" s="2">
+      <c r="AA56" s="5">
         <v>2</v>
       </c>
-      <c r="AB56" s="2">
+      <c r="AB56" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="2" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="5">
         <v>93</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="5">
         <v>7</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="6">
         <v>0.08</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="5">
         <v>12</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M57" s="2">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2">
-        <v>1</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>0</v>
-      </c>
-      <c r="R57" s="4" t="s">
+      <c r="M57" s="5">
+        <v>0</v>
+      </c>
+      <c r="N57" s="5">
+        <v>1</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>0</v>
+      </c>
+      <c r="R57" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="S57" s="2" t="s">
+      <c r="S57" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="T57" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U57" s="2">
+      <c r="U57" s="5">
         <v>75</v>
       </c>
-      <c r="V57" s="2">
+      <c r="V57" s="5">
         <v>3</v>
       </c>
-      <c r="W57" s="2">
-        <v>1</v>
-      </c>
-      <c r="X57" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="2">
+      <c r="W57" s="5">
+        <v>1</v>
+      </c>
+      <c r="X57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F58">
+      <c r="C58" s="2"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="8">
         <v>6</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
+      <c r="G58" s="8">
+        <v>0</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8">
         <v>4</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="S58" t="s">
+      <c r="M58" s="8">
+        <v>0</v>
+      </c>
+      <c r="N58" s="8">
+        <v>1</v>
+      </c>
+      <c r="O58" s="8">
+        <v>0</v>
+      </c>
+      <c r="P58" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="T58" t="s">
+      <c r="T58" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="U58">
+      <c r="U58" s="8">
         <v>206</v>
       </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
+      <c r="V58" s="8">
+        <v>0</v>
+      </c>
+      <c r="W58" s="8">
+        <v>0</v>
+      </c>
+      <c r="X58" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="2" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="5">
         <v>18</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="5">
         <v>3</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="6">
         <v>0.17</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="5">
         <v>9</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2">
-        <v>1</v>
-      </c>
-      <c r="O59" s="2">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="4" t="s">
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="5">
+        <v>1</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>0</v>
+      </c>
+      <c r="R59" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="S59" s="2" t="s">
+      <c r="S59" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="T59" s="2" t="s">
+      <c r="T59" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U59" s="2">
+      <c r="U59" s="5">
         <v>657</v>
       </c>
-      <c r="V59" s="2">
+      <c r="V59" s="5">
         <v>19</v>
       </c>
-      <c r="W59" s="2">
+      <c r="W59" s="5">
         <v>8</v>
       </c>
-      <c r="X59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="2">
+      <c r="X59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB59" xr:uid="{595F6ACF-FB95-432C-865E-35EE42793E92}">
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{d64a6fc3-496d-44ea-86a8-5b93f17e3566}" enabled="1" method="Standard" siteId="{3b16616d-f174-497a-a1ae-900d85106996}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>
--- a/data/dashboards_csc.xlsx
+++ b/data/dashboards_csc.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoalicorp-my.sharepoint.com/personal/aperalesc_alicorp_com_pe/Documents/Escritorio/github/alicorp_eda_dashboards/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_D89475C106D313929CBC3822FECCA2609D4FA6FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C993D865-6272-4C8B-BE40-993F801CC856}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Hoja1!$A$1:$AB$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AB$59</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -878,7 +884,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
@@ -897,17 +903,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -920,16 +921,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,53 +945,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1001,10 +994,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1042,71 +1035,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1134,7 +1127,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1157,11 +1150,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1170,13 +1163,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1186,7 +1179,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1195,7 +1188,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1204,7 +1197,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1212,10 +1205,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1280,47 +1273,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="10" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="28" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1419,7 +1398,6 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1"/>
       <c r="F2" s="5">
         <v>338</v>
       </c>
@@ -1490,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="111.75">
+    <row r="3" spans="1:28" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -1576,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="125.25">
+    <row r="4" spans="1:28" ht="125.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1662,7 +1640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1675,7 +1653,6 @@
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="5">
         <v>15</v>
       </c>
@@ -1746,7 +1723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -1756,8 +1733,6 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
       <c r="F6" s="5">
         <v>7</v>
       </c>
@@ -1765,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="6">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I6" s="5">
         <v>6</v>
@@ -1794,7 +1769,6 @@
       <c r="Q6" s="5">
         <v>0</v>
       </c>
-      <c r="R6" s="1"/>
       <c r="S6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1826,7 +1800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="85.5">
+    <row r="7" spans="1:28" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -1912,14 +1886,13 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="125.25">
+    <row r="8" spans="1:28" ht="125.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1996,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -2082,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="85.5">
+    <row r="10" spans="1:28" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
@@ -2168,7 +2141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
@@ -2254,14 +2227,13 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="151.5">
+    <row r="12" spans="1:28" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
         <v>81</v>
       </c>
@@ -2338,14 +2310,13 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="45.75">
+    <row r="13" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
         <v>86</v>
       </c>
@@ -2422,14 +2393,13 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="2"/>
       <c r="D14" s="4" t="s">
         <v>90</v>
       </c>
@@ -2484,7 +2454,6 @@
       <c r="U14" s="5">
         <v>687</v>
       </c>
-      <c r="V14" s="2"/>
       <c r="W14" s="5">
         <v>51</v>
       </c>
@@ -2504,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -2514,8 +2483,6 @@
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
       <c r="F15" s="5">
         <v>80</v>
       </c>
@@ -2552,7 +2519,6 @@
       <c r="Q15" s="5">
         <v>0</v>
       </c>
-      <c r="R15" s="1"/>
       <c r="S15" s="4" t="s">
         <v>58</v>
       </c>
@@ -2562,10 +2528,6 @@
       <c r="U15" s="5">
         <v>755</v>
       </c>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
       <c r="Z15" s="5">
         <v>10</v>
       </c>
@@ -2576,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="111.75">
+    <row r="16" spans="1:28" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>96</v>
       </c>
@@ -2662,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>96</v>
       </c>
@@ -2714,7 +2676,6 @@
       <c r="Q17" s="5">
         <v>0</v>
       </c>
-      <c r="R17" s="1"/>
       <c r="S17" s="4" t="s">
         <v>101</v>
       </c>
@@ -2746,15 +2707,13 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
       <c r="E18" s="4" t="s">
         <v>104</v>
       </c>
@@ -2794,7 +2753,6 @@
       <c r="Q18" s="5">
         <v>0</v>
       </c>
-      <c r="R18" s="1"/>
       <c r="S18" s="4" t="s">
         <v>101</v>
       </c>
@@ -2826,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="111.75">
+    <row r="19" spans="1:28" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>96</v>
       </c>
@@ -2912,14 +2870,13 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="2"/>
       <c r="D20" s="4" t="s">
         <v>114</v>
       </c>
@@ -2996,14 +2953,13 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="125.25">
+    <row r="21" spans="1:28" ht="125.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="2"/>
       <c r="D21" s="4" t="s">
         <v>120</v>
       </c>
@@ -3080,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
@@ -3166,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="151.5">
+    <row r="23" spans="1:28" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
@@ -3252,7 +3208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>96</v>
       </c>
@@ -3275,7 +3231,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="6">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I24" s="5">
         <v>10</v>
@@ -3304,7 +3260,6 @@
       <c r="Q24" s="5">
         <v>0</v>
       </c>
-      <c r="R24" s="1"/>
       <c r="S24" s="4" t="s">
         <v>101</v>
       </c>
@@ -3336,14 +3291,13 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="2"/>
       <c r="D25" s="4" t="s">
         <v>98</v>
       </c>
@@ -3420,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>96</v>
       </c>
@@ -3472,7 +3426,6 @@
       <c r="Q26" s="5">
         <v>0</v>
       </c>
-      <c r="R26" s="1"/>
       <c r="S26" s="4" t="s">
         <v>101</v>
       </c>
@@ -3504,14 +3457,13 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
         <v>140</v>
       </c>
@@ -3588,14 +3540,13 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="2"/>
       <c r="D28" s="4" t="s">
         <v>140</v>
       </c>
@@ -3672,14 +3623,13 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="2"/>
       <c r="D29" s="4" t="s">
         <v>145</v>
       </c>
@@ -3722,7 +3672,6 @@
       <c r="Q29" s="5">
         <v>1</v>
       </c>
-      <c r="R29" s="1"/>
       <c r="S29" s="4" t="s">
         <v>101</v>
       </c>
@@ -3754,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>96</v>
       </c>
@@ -3818,11 +3767,6 @@
       <c r="U30" s="5">
         <v>787</v>
       </c>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
       <c r="AA30" s="5">
         <v>6</v>
       </c>
@@ -3830,7 +3774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>151</v>
       </c>
@@ -3916,14 +3860,13 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="2"/>
       <c r="D32" s="4" t="s">
         <v>159</v>
       </c>
@@ -3937,7 +3880,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="6">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I32" s="5">
         <v>36</v>
@@ -4000,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>151</v>
       </c>
@@ -4086,7 +4029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>151</v>
       </c>
@@ -4172,7 +4115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>151</v>
       </c>
@@ -4236,7 +4179,6 @@
       <c r="U35" s="5">
         <v>678</v>
       </c>
-      <c r="V35" s="2"/>
       <c r="W35" s="5">
         <v>19</v>
       </c>
@@ -4256,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>151</v>
       </c>
@@ -4308,7 +4250,6 @@
       <c r="Q36" s="5">
         <v>0</v>
       </c>
-      <c r="R36" s="1"/>
       <c r="S36" s="4" t="s">
         <v>157</v>
       </c>
@@ -4318,11 +4259,6 @@
       <c r="U36" s="5">
         <v>764</v>
       </c>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
       <c r="AA36" s="5">
         <v>5</v>
       </c>
@@ -4330,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>177</v>
       </c>
@@ -4416,7 +4352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>177</v>
       </c>
@@ -4502,7 +4438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>177</v>
       </c>
@@ -4588,7 +4524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>177</v>
       </c>
@@ -4674,7 +4610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>177</v>
       </c>
@@ -4760,7 +4696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>177</v>
       </c>
@@ -4783,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="6">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I42" s="5">
         <v>2</v>
@@ -4846,7 +4782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>177</v>
       </c>
@@ -4932,7 +4868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>177</v>
       </c>
@@ -4945,7 +4881,6 @@
       <c r="D44" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E44" s="1"/>
       <c r="F44" s="5">
         <v>28</v>
       </c>
@@ -5016,7 +4951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>177</v>
       </c>
@@ -5102,7 +5037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>177</v>
       </c>
@@ -5154,7 +5089,6 @@
       <c r="Q46" s="5">
         <v>0</v>
       </c>
-      <c r="R46" s="1"/>
       <c r="S46" s="4" t="s">
         <v>182</v>
       </c>
@@ -5186,7 +5120,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>177</v>
       </c>
@@ -5238,7 +5172,6 @@
       <c r="Q47" s="5">
         <v>0</v>
       </c>
-      <c r="R47" s="1"/>
       <c r="S47" s="4" t="s">
         <v>182</v>
       </c>
@@ -5270,7 +5203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>177</v>
       </c>
@@ -5356,7 +5289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>177</v>
       </c>
@@ -5442,14 +5375,13 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C50" s="2"/>
       <c r="D50" s="4" t="s">
         <v>231</v>
       </c>
@@ -5526,14 +5458,13 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C51" s="2"/>
       <c r="D51" s="4" t="s">
         <v>237</v>
       </c>
@@ -5610,14 +5541,13 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C52" s="2"/>
       <c r="D52" s="4" t="s">
         <v>241</v>
       </c>
@@ -5694,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>229</v>
       </c>
@@ -5780,14 +5710,13 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="2"/>
       <c r="D54" s="4" t="s">
         <v>249</v>
       </c>
@@ -5864,14 +5793,13 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="2"/>
       <c r="D55" s="4" t="s">
         <v>253</v>
       </c>
@@ -5926,9 +5854,6 @@
       <c r="U55" s="5">
         <v>723</v>
       </c>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
       <c r="Y55" s="5">
         <v>2</v>
       </c>
@@ -5942,14 +5867,13 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C56" s="2"/>
       <c r="D56" s="4" t="s">
         <v>258</v>
       </c>
@@ -6004,9 +5928,6 @@
       <c r="U56" s="5">
         <v>730</v>
       </c>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
       <c r="Y56" s="5">
         <v>1</v>
       </c>
@@ -6020,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>261</v>
       </c>
@@ -6049,7 +5970,7 @@
         <v>12</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>264</v>
@@ -6106,16 +6027,13 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
       <c r="F58" s="8">
         <v>6</v>
       </c>
@@ -6152,7 +6070,6 @@
       <c r="Q58" s="8">
         <v>0</v>
       </c>
-      <c r="R58" s="1"/>
       <c r="S58" s="1" t="s">
         <v>266</v>
       </c>
@@ -6184,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>261</v>
       </c>
@@ -6271,6 +6188,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AB59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{d64a6fc3-496d-44ea-86a8-5b93f17e3566}" enabled="1" method="Standard" siteId="{3b16616d-f174-497a-a1ae-900d85106996}" removed="0"/>
+</clbl:labelList>
 </file>